--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_12_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51055.75341576634</v>
+        <v>10160094.9297375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51055.75341576634</v>
+        <v>10160094.9297375</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1080.476668925251</v>
+        <v>162880.1235226504</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1080.476668925251</v>
+        <v>162880.1235226504</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265721547.4609</v>
+        <v>51758109.06463877</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10526.44062814775</v>
+        <v>1152745.840846909</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20327.60013879342</v>
+        <v>2191731.899121299</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30128.75964943908</v>
+        <v>3230717.957395691</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40297.82134180286</v>
+        <v>4282752.626579173</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50401.31212507572</v>
+        <v>5321738.684853565</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60504.80290834858</v>
+        <v>6360724.743127955</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70608.29369162144</v>
+        <v>7399710.801402342</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80711.7844748943</v>
+        <v>8438696.859676728</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90920.92543883807</v>
+        <v>9476110.269880971</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101079.2962221109</v>
+        <v>10515096.32815536</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111237.6670053838</v>
+        <v>11554082.38642975</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121086.2164283469</v>
+        <v>12579718.31599134</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131000.3367604011</v>
+        <v>13618402.85646202</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>141048.7922308124</v>
+        <v>14639514.98437578</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151177.1077012237</v>
+        <v>15648771.53228955</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
